--- a/files/resume.xlsx
+++ b/files/resume.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -29,13 +29,19 @@
     <t>educs</t>
   </si>
   <si>
-    <t>lates</t>
-  </si>
-  <si>
     <t>jobs</t>
   </si>
   <si>
-    <t>file</t>
+    <t>Алексей Михайлович Моргун</t>
+  </si>
+  <si>
+    <t>C#:3|JavaScript:8|WBAScript:5|Java:4|PHP:10|Kotlin:3|Phyton:5|HTML:10|CSS:10|Json:10|NoSQL:10|GraphQL:10|SQL:10|BATH:3|SHELL:3|npm:10|git:10|composer:10|docker:8|figma:7</t>
+  </si>
+  <si>
+    <t>hightech:TRIZ:2|INTUIT:1|university:SFEDU:5|DSTU:3</t>
+  </si>
+  <si>
+    <t>striga.me:WordPress:1|skidkimira.ru:CodeIgniter:0|triz-ri.com:SiteOS:12|apply-marine.ru:ModX:1|linguachain.ru:WordPress:1|wozy.ru:WordPress:4|art-green.ru:Bitrix:12|http:194.67.90.250:PHP 8.1:4|...:...</t>
   </si>
 </sst>
 </file>
@@ -43,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -53,13 +59,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -79,6 +103,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="3048000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="PHOTO" descr="Ahi Les"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,36 +430,402 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1:Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1"/>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -415,6 +840,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/files/resume.xlsx
+++ b/files/resume.xlsx
@@ -41,7 +41,7 @@
     <t>hightech:TRIZ:2|INTUIT:1|university:SFEDU:5|DSTU:3</t>
   </si>
   <si>
-    <t>striga.me:WordPress:1|skidkimira.ru:CodeIgniter:0|triz-ri.com:SiteOS:12|apply-marine.ru:ModX:1|linguachain.ru:WordPress:1|wozy.ru:WordPress:4|art-green.ru:Bitrix:12|http:194.67.90.250:PHP 8.1:4|...:...</t>
+    <t>striga.me:WordPress:1|skidkimira.ru:CodeIgniter:0|triz-ri.com:SiteOS:12|apply-marine.ru:ModX:1|linguachain.ru:WordPress:1|wozy.ru:WordPress:4|art-green.ru:Bitrix:12|194.67.90.250:PHP 8.1:4|...:...</t>
   </si>
 </sst>
 </file>

--- a/files/resume.xlsx
+++ b/files/resume.xlsx
@@ -41,7 +41,7 @@
     <t>hightech:TRIZ:2|INTUIT:1|university:SFEDU:5|DSTU:3</t>
   </si>
   <si>
-    <t>striga.me:WordPress:1|skidkimira.ru:CodeIgniter:0|triz-ri.com:SiteOS:12|apply-marine.ru:ModX:1|linguachain.ru:WordPress:1|wozy.ru:WordPress:4|art-green.ru:Bitrix:12|194.67.90.250:PHP 8.1:4|...:...</t>
+    <t>striga.me:WordPress:1|skidkimira.ru:CodeIgniter:0|triz-ri.com:SiteOS:12|apply-marine.ru:ModX:1|linguachain.ru:WordPress:1|wozy.ru:WordPress:4|art-green.ru:Bitrix:12|portal.robotcarwash.ru:Bitrix:0|194.67.90.250:PHP 8.1:4|iosmods.ru:PHP 8.2:1|...:...</t>
   </si>
 </sst>
 </file>
